--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -656,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
         <v>4.33</v>
@@ -707,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -716,7 +716,7 @@
         <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K3" t="n">
         <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -1048,7 +1048,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6mjtjxEU</t>
+          <t>IRJb8JTb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1068,109 +1068,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alajuelense</t>
+          <t>Guanacasteca</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Liberia</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>100</v>
-      </c>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IRJb8JTb</t>
+          <t>6mjtjxEU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1180,7 +1120,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1190,49 +1130,107 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Guanacasteca</t>
+          <t>Alajuelense</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Herediano</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>67</v>
+      </c>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EgD76cbB</t>
+          <t>A1GjAuan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1242,7 +1240,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1252,109 +1250,109 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Puntarenas FC</t>
+          <t>Cartagines</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.36</v>
       </c>
-      <c r="M9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W9" t="n">
+        <v>11</v>
+      </c>
+      <c r="X9" t="n">
         <v>13</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15</v>
       </c>
-      <c r="Y9" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A1GjAuan</t>
+          <t>EgD76cbB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1374,103 +1372,103 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cartagines</t>
+          <t>Puntarenas FC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K10" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.82</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T10" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="V10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AD10" t="n">
         <v>900</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1505,94 +1503,94 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T11" t="n">
+        <v>12</v>
+      </c>
+      <c r="U11" t="n">
+        <v>23</v>
+      </c>
+      <c r="V11" t="n">
+        <v>17</v>
+      </c>
+      <c r="W11" t="n">
+        <v>51</v>
+      </c>
+      <c r="X11" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>6.5</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>10</v>
-      </c>
-      <c r="U11" t="n">
-        <v>22</v>
-      </c>
-      <c r="V11" t="n">
-        <v>14</v>
-      </c>
-      <c r="W11" t="n">
-        <v>70</v>
-      </c>
-      <c r="X11" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2250,34 +2248,34 @@
         <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I22" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
         <v>1.17</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R22" t="n">
         <v>2.25</v>
@@ -2286,25 +2284,25 @@
         <v>1.57</v>
       </c>
       <c r="T22" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="U22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W22" t="n">
         <v>50</v>
       </c>
       <c r="X22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AA22" t="n">
         <v>5.3</v>
@@ -2315,23 +2313,21 @@
       <c r="AC22" t="n">
         <v>150</v>
       </c>
-      <c r="AD22" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI22" t="n">
         <v>30</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>32</v>
       </c>
       <c r="AJ22" t="n">
         <v>55</v>
@@ -2372,10 +2368,10 @@
         <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I23" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J23" t="n">
         <v>1.18</v>
@@ -2408,28 +2404,28 @@
         <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U23" t="n">
         <v>11.75</v>
       </c>
       <c r="V23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W23" t="n">
+        <v>35</v>
+      </c>
+      <c r="X23" t="n">
         <v>37</v>
       </c>
-      <c r="X23" t="n">
-        <v>40</v>
-      </c>
       <c r="Y23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z23" t="n">
         <v>4.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
@@ -2437,11 +2433,9 @@
       <c r="AC23" t="n">
         <v>200</v>
       </c>
-      <c r="AD23" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AF23" t="n">
         <v>12.5</v>
@@ -2453,10 +2447,10 @@
         <v>40</v>
       </c>
       <c r="AI23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -2677,37 +2671,37 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R27" t="n">
         <v>1.73</v>
@@ -2716,34 +2710,34 @@
         <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="V27" t="n">
         <v>15</v>
       </c>
       <c r="W27" t="n">
+        <v>51</v>
+      </c>
+      <c r="X27" t="n">
         <v>41</v>
-      </c>
-      <c r="X27" t="n">
-        <v>34</v>
       </c>
       <c r="Y27" t="n">
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD27" t="n">
         <v>201</v>
@@ -2752,16 +2746,16 @@
         <v>8</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG27" t="n">
         <v>8.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>23</v>
@@ -3186,16 +3180,16 @@
         <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P34" t="n">
         <v>1.5</v>
@@ -3293,19 +3287,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J35" t="n">
         <v>1.08</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.4</v>
@@ -3314,10 +3308,10 @@
         <v>2.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P35" t="n">
         <v>1.5</v>
@@ -3326,37 +3320,37 @@
         <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U35" t="n">
         <v>19</v>
       </c>
       <c r="V35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W35" t="n">
         <v>41</v>
       </c>
       <c r="X35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
         <v>67</v>
@@ -3368,7 +3362,7 @@
         <v>6</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG35" t="n">
         <v>9</v>
@@ -3386,7 +3380,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lIIwe69d</t>
+          <t>IcphYk9r</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3396,7 +3390,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3406,100 +3400,100 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="O36" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="P36" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="T36" t="n">
         <v>12</v>
       </c>
       <c r="U36" t="n">
+        <v>15</v>
+      </c>
+      <c r="V36" t="n">
+        <v>10</v>
+      </c>
+      <c r="W36" t="n">
+        <v>23</v>
+      </c>
+      <c r="X36" t="n">
         <v>17</v>
       </c>
-      <c r="V36" t="n">
-        <v>12</v>
-      </c>
-      <c r="W36" t="n">
+      <c r="Y36" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC36" t="n">
         <v>34</v>
       </c>
-      <c r="X36" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y36" t="n">
+      <c r="AD36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH36" t="n">
         <v>29</v>
       </c>
-      <c r="Z36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>21</v>
-      </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -3508,7 +3502,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>xvaYGmWF</t>
+          <t>l85zkizo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3518,119 +3512,59 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>10</v>
-      </c>
-      <c r="U37" t="n">
-        <v>15</v>
-      </c>
-      <c r="V37" t="n">
-        <v>11</v>
-      </c>
-      <c r="W37" t="n">
-        <v>29</v>
-      </c>
-      <c r="X37" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>26</v>
-      </c>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EcJtE4V6</t>
+          <t>fVB964Kk</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3640,110 +3574,110 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>9.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>2.45</v>
+        <v>1.22</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>23</v>
       </c>
       <c r="K38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T38" t="n">
+        <v>29</v>
+      </c>
+      <c r="U38" t="n">
+        <v>51</v>
+      </c>
+      <c r="V38" t="n">
+        <v>26</v>
+      </c>
+      <c r="W38" t="n">
+        <v>101</v>
+      </c>
+      <c r="X38" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA38" t="n">
         <v>13</v>
       </c>
-      <c r="L38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T38" t="n">
+      <c r="AB38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE38" t="n">
         <v>11</v>
       </c>
-      <c r="U38" t="n">
-        <v>15</v>
-      </c>
-      <c r="V38" t="n">
+      <c r="AF38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG38" t="n">
         <v>10</v>
       </c>
-      <c r="W38" t="n">
-        <v>29</v>
-      </c>
-      <c r="X38" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AJ38" t="n">
         <v>23</v>
@@ -3752,7 +3686,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>l85zkizo</t>
+          <t>t4TMF8c3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3762,59 +3696,119 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K39" t="n">
+        <v>17</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T39" t="n">
+        <v>9</v>
+      </c>
+      <c r="U39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>9</v>
+      </c>
+      <c r="W39" t="n">
+        <v>9</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fVB964Kk</t>
+          <t>rih4Sos9</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3824,7 +3818,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3834,109 +3828,109 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>9.5</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K40" t="n">
         <v>1.02</v>
       </c>
       <c r="L40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="M40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O40" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P40" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="U40" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="V40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>19</v>
+      </c>
+      <c r="X40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC40" t="n">
         <v>26</v>
       </c>
-      <c r="W40" t="n">
-        <v>101</v>
-      </c>
-      <c r="X40" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y40" t="n">
+      <c r="AD40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH40" t="n">
         <v>41</v>
       </c>
-      <c r="Z40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AI40" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t4TMF8c3</t>
+          <t>8YLtWmOr</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3946,119 +3940,111 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Najma</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.33</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K41" t="n">
-        <v>15</v>
-      </c>
+        <v>2.72</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="N41" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="O41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3.75</v>
-      </c>
+        <v>2.02</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="S41" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="V41" t="n">
         <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y41" t="n">
         <v>23</v>
       </c>
       <c r="Z41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG41" t="n">
         <v>10</v>
       </c>
-      <c r="AB41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>26</v>
-      </c>
       <c r="AH41" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="AI41" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>rih4Sos9</t>
+          <t>UmAkURhe</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4068,119 +4054,115 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Bukiryah</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>21</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.03</v>
-      </c>
+        <v>2.95</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>2.95</v>
       </c>
       <c r="N42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P42" t="n">
         <v>1.4</v>
       </c>
-      <c r="O42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Q42" t="n">
-        <v>4.33</v>
+        <v>2.52</v>
       </c>
       <c r="R42" t="n">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="T42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>22</v>
+      </c>
+      <c r="X42" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF42" t="n">
         <v>15</v>
       </c>
-      <c r="U42" t="n">
-        <v>15</v>
-      </c>
-      <c r="V42" t="n">
-        <v>10</v>
-      </c>
-      <c r="W42" t="n">
-        <v>23</v>
-      </c>
-      <c r="X42" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>23</v>
-      </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AH42" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI42" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ42" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8YLtWmOr</t>
+          <t>tOy2wWV8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4190,7 +4172,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4200,101 +4182,105 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Ohod</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Najma</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="H43" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>2.77</v>
       </c>
       <c r="N43" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="O43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R43" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="S43" t="n">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V43" t="n">
         <v>10</v>
       </c>
-      <c r="V43" t="n">
-        <v>7.4</v>
-      </c>
       <c r="W43" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X43" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y43" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="Z43" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AD43" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AE43" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AF43" t="n">
         <v>12</v>
       </c>
       <c r="AG43" t="n">
-        <v>8.199999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="AH43" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI43" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AJ43" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UmAkURhe</t>
+          <t>8vJNkvSE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4304,115 +4290,103 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Al Bukiryah</t>
+          <t>Tampines</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Balestier Khalsa</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.19</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.7</v>
-      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>1.76</v>
+        <v>1.28</v>
       </c>
       <c r="S44" t="n">
-        <v>1.95</v>
+        <v>3.05</v>
       </c>
       <c r="T44" t="n">
-        <v>6.2</v>
+        <v>19</v>
       </c>
       <c r="U44" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="V44" t="n">
-        <v>7.2</v>
+        <v>9.75</v>
       </c>
       <c r="W44" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="Y44" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="AA44" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AC44" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AD44" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.4</v>
+        <v>35</v>
       </c>
       <c r="AF44" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="AH44" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AJ44" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>tOy2wWV8</t>
+          <t>Qw81rdKl</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4422,115 +4396,107 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ohod</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3</v>
-      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="O45" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.55</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
       <c r="S45" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="T45" t="n">
-        <v>6.4</v>
+        <v>17.5</v>
       </c>
       <c r="U45" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="V45" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W45" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="X45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AC45" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AD45" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AE45" t="n">
-        <v>6.2</v>
+        <v>13.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AH45" t="n">
         <v>23</v>
       </c>
       <c r="AI45" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8vJNkvSE</t>
+          <t>6PipXzkg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4540,59 +4506,119 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tampines</t>
+          <t>Maribor</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>13</v>
+      </c>
+      <c r="V46" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W46" t="n">
+        <v>25</v>
+      </c>
+      <c r="X46" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Qw81rdKl</t>
+          <t>pCd6bqel</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4602,344 +4628,106 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Kryvbas</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>1.62</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="I47" t="n">
-        <v>2.09</v>
+        <v>5.4</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>1.12</v>
+        <v>1.45</v>
       </c>
       <c r="M47" t="n">
-        <v>5.8</v>
+        <v>2.37</v>
       </c>
       <c r="N47" t="n">
-        <v>1.4</v>
+        <v>2.32</v>
       </c>
       <c r="O47" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+        <v>1.47</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.22</v>
+      </c>
       <c r="R47" t="n">
-        <v>1.39</v>
+        <v>2.27</v>
       </c>
       <c r="S47" t="n">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="T47" t="n">
-        <v>14</v>
+        <v>4.85</v>
       </c>
       <c r="U47" t="n">
-        <v>17</v>
+        <v>6.1</v>
       </c>
       <c r="V47" t="n">
         <v>9</v>
       </c>
       <c r="W47" t="n">
-        <v>30</v>
+        <v>11.25</v>
       </c>
       <c r="X47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.4</v>
+        <v>25</v>
       </c>
       <c r="AC47" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>101</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AG47" t="n">
-        <v>7.4</v>
+        <v>19.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="AI47" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>6PipXzkg</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>07/05/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>13:45</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>SLOVENIA - PRVA LIGA</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Maribor</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Celje</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M48" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U48" t="n">
-        <v>13</v>
-      </c>
-      <c r="V48" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W48" t="n">
-        <v>26</v>
-      </c>
-      <c r="X48" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>pCd6bqel</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>07/05/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Kryvbas</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Livyi Bereg</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="U49" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="V49" t="n">
-        <v>9</v>
-      </c>
-      <c r="W49" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="X49" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -3846,16 +3846,16 @@
         <v>3.5</v>
       </c>
       <c r="J40" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>1.02</v>
+        <v>11</v>
       </c>
       <c r="L40" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M40" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N40" t="n">
         <v>1.4</v>
@@ -4525,67 +4525,67 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I46" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J46" t="n">
         <v>1.05</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M46" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="N46" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P46" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S46" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T46" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="U46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V46" t="n">
         <v>9.25</v>
       </c>
       <c r="W46" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z46" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
         <v>12.5</v>
@@ -4594,7 +4594,7 @@
         <v>50</v>
       </c>
       <c r="AD46" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE46" t="n">
         <v>10</v>
@@ -4606,13 +4606,13 @@
         <v>9.75</v>
       </c>
       <c r="AH46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ46" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -3421,19 +3421,19 @@
         <v>1.03</v>
       </c>
       <c r="K36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L36" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O36" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P36" t="n">
         <v>1.29</v>
@@ -3466,10 +3466,10 @@
         <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
         <v>11</v>
@@ -3493,7 +3493,7 @@
         <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -3724,10 +3724,10 @@
         <v>8</v>
       </c>
       <c r="J39" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.14</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -1390,10 +1390,10 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1624,36 +1624,96 @@
           <t>Zizkov</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>15</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1686,36 +1746,96 @@
           <t>Slavia Prague B</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>19</v>
+      </c>
+      <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1748,36 +1868,96 @@
           <t>Sigma Olomouc B</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>7</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1810,36 +1990,96 @@
           <t>Prostejov</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>9</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>15</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1872,36 +2112,96 @@
           <t>Zlin</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12</v>
+      </c>
+      <c r="W16" t="n">
+        <v>34</v>
+      </c>
+      <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1934,36 +2234,96 @@
           <t>Vlasim</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1996,36 +2356,96 @@
           <t>Jihlava</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2058,36 +2478,96 @@
           <t>Lisen</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>9</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2491,29 +2971,71 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7</v>
+      </c>
+      <c r="W24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2553,29 +3075,71 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.4</v>
+      </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>7</v>
+      </c>
+      <c r="W25" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2615,29 +3179,71 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>10</v>
+      </c>
+      <c r="V26" t="n">
+        <v>8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>22</v>
+      </c>
+      <c r="X26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3168,10 +3774,10 @@
         <v>1.95</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -3180,10 +3786,10 @@
         <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N34" t="n">
         <v>2.35</v>
@@ -3222,7 +3828,7 @@
         <v>34</v>
       </c>
       <c r="Z34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -3243,13 +3849,13 @@
         <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
@@ -3296,10 +3902,10 @@
         <v>1.95</v>
       </c>
       <c r="J35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
         <v>1.4</v>
@@ -3308,10 +3914,10 @@
         <v>2.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P35" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -1381,13 +1381,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1402,10 +1402,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1414,22 +1414,22 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1438,34 +1438,34 @@
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="n">
         <v>900</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ10" t="n">
         <v>51</v>
@@ -1503,19 +1503,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1545,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V11" t="n">
         <v>17</v>
@@ -1557,19 +1557,19 @@
         <v>41</v>
       </c>
       <c r="Y11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
         <v>351</v>
@@ -1747,94 +1747,94 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T13" t="n">
         <v>11</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>8</v>
-      </c>
       <c r="U13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
+        <v>23</v>
+      </c>
+      <c r="X13" t="n">
         <v>19</v>
       </c>
-      <c r="X13" t="n">
-        <v>17</v>
-      </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="n">
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -1878,16 +1878,16 @@
         <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N14" t="n">
         <v>1.85</v>
@@ -2113,13 +2113,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
@@ -2128,49 +2128,49 @@
         <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N16" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
         <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
         <v>34</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
@@ -2182,19 +2182,19 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -2235,19 +2235,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2256,10 +2256,10 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.4</v>
@@ -2286,16 +2286,16 @@
         <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
         <v>17</v>
@@ -2310,7 +2310,7 @@
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -2378,10 +2378,10 @@
         <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2479,31 +2479,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
         <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2512,16 +2512,16 @@
         <v>2.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
@@ -2536,7 +2536,7 @@
         <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6.5</v>
@@ -2548,13 +2548,13 @@
         <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE19" t="n">
         <v>9.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
@@ -2563,7 +2563,7 @@
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -2725,92 +2725,92 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J22" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="M22" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W22" t="n">
+        <v>55</v>
+      </c>
+      <c r="X22" t="n">
         <v>50</v>
       </c>
-      <c r="X22" t="n">
-        <v>45</v>
-      </c>
       <c r="Y22" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="AA22" t="n">
         <v>5.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -2964,9 +2964,15 @@
           <t>Torpedo Kutaisi</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.65</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -3068,9 +3074,15 @@
           <t>Gagra</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.45</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -3172,9 +3184,15 @@
           <t>Iberia 1999</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.67</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -3398,36 +3416,96 @@
           <t>Atalanta U23</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U28" t="n">
+        <v>11</v>
+      </c>
+      <c r="V28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3460,36 +3538,94 @@
           <t>Vis Pesaro</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W29" t="n">
+        <v>17</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>100</v>
+      </c>
       <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="AE29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3522,36 +3658,96 @@
           <t>Potenza</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3584,36 +3780,96 @@
           <t>Juventus U23</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U31" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3646,36 +3902,96 @@
           <t>Pianese</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U32" t="n">
+        <v>7</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3708,36 +4024,96 @@
           <t>Giana Erminio</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T33" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>10</v>
+      </c>
+      <c r="W33" t="n">
+        <v>32</v>
+      </c>
+      <c r="X33" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3893,19 +4269,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
         <v>1.95</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
         <v>1.4</v>
@@ -3926,10 +4302,10 @@
         <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T35" t="n">
         <v>9.5</v>
@@ -3938,25 +4314,25 @@
         <v>19</v>
       </c>
       <c r="V35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W35" t="n">
         <v>41</v>
       </c>
       <c r="X35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
         <v>67</v>
@@ -3968,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="AF35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG35" t="n">
         <v>9</v>
@@ -4208,10 +4584,10 @@
         <v>1.22</v>
       </c>
       <c r="J38" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="K38" t="n">
-        <v>1.02</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
         <v>1.1</v>
@@ -4321,19 +4697,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K39" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="L39" t="n">
         <v>1.14</v>
@@ -4342,10 +4718,10 @@
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O39" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P39" t="n">
         <v>1.25</v>
@@ -4354,22 +4730,22 @@
         <v>3.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T39" t="n">
         <v>9</v>
       </c>
       <c r="U39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V39" t="n">
         <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X39" t="n">
         <v>11</v>
@@ -4381,34 +4757,34 @@
         <v>17</v>
       </c>
       <c r="AA39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AE39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH39" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="n">
         <v>51</v>
       </c>
       <c r="AJ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -4915,78 +5291,94 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K44" t="n">
+        <v>34</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M44" t="n">
+        <v>11</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O44" t="n">
         <v>4.2</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>6</v>
+      </c>
       <c r="R44" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S44" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T44" t="n">
         <v>19</v>
       </c>
       <c r="U44" t="n">
+        <v>13</v>
+      </c>
+      <c r="V44" t="n">
+        <v>10</v>
+      </c>
+      <c r="W44" t="n">
         <v>15</v>
       </c>
-      <c r="V44" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W44" t="n">
-        <v>17.5</v>
-      </c>
       <c r="X44" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD44" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AE44" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AF44" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH44" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AI44" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -5021,79 +5413,91 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>34</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M45" t="n">
+        <v>11</v>
+      </c>
       <c r="N45" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="O45" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+        <v>4.2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5.5</v>
+      </c>
       <c r="R45" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="S45" t="n">
-        <v>2.67</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="U45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V45" t="n">
+        <v>12</v>
+      </c>
+      <c r="W45" t="n">
+        <v>29</v>
+      </c>
+      <c r="X45" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA45" t="n">
         <v>11</v>
       </c>
-      <c r="W45" t="n">
-        <v>40</v>
-      </c>
-      <c r="X45" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB45" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AD45" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AE45" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AF45" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -656,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
         <v>1.2</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -710,7 +710,7 @@
         <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>67</v>
@@ -781,7 +781,7 @@
         <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -823,13 +823,13 @@
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
         <v>8.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>19</v>
@@ -844,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -1313,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
         <v>11</v>
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1518,22 +1518,22 @@
         <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
@@ -1542,13 +1542,13 @@
         <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W11" t="n">
         <v>51</v>
@@ -1578,13 +1578,13 @@
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -1628,10 +1628,10 @@
         <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1646,10 +1646,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -1664,10 +1664,10 @@
         <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1691,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
         <v>201</v>
@@ -1709,10 +1709,10 @@
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -1762,16 +1762,16 @@
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P13" t="n">
         <v>1.3</v>
@@ -1780,28 +1780,28 @@
         <v>3.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T13" t="n">
+        <v>12</v>
+      </c>
+      <c r="U13" t="n">
+        <v>17</v>
+      </c>
+      <c r="V13" t="n">
         <v>11</v>
       </c>
-      <c r="U13" t="n">
-        <v>15</v>
-      </c>
-      <c r="V13" t="n">
-        <v>10</v>
-      </c>
       <c r="W13" t="n">
+        <v>34</v>
+      </c>
+      <c r="X13" t="n">
         <v>23</v>
       </c>
-      <c r="X13" t="n">
-        <v>19</v>
-      </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>15</v>
@@ -1819,22 +1819,22 @@
         <v>126</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
         <v>15</v>
       </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -1902,31 +1902,31 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
         <v>7</v>
       </c>
       <c r="U14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
@@ -1938,7 +1938,7 @@
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -1947,10 +1947,10 @@
         <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2024,22 +2024,22 @@
         <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -2060,7 +2060,7 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE15" t="n">
         <v>12</v>
@@ -2075,10 +2075,10 @@
         <v>41</v>
       </c>
       <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2125,7 +2125,7 @@
         <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2161,7 +2161,7 @@
         <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -2244,37 +2244,37 @@
         <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U17" t="n">
         <v>8.5</v>
@@ -2292,7 +2292,7 @@
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2307,7 +2307,7 @@
         <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
@@ -2396,16 +2396,16 @@
         <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
@@ -3188,7 +3188,7 @@
         <v>2.52</v>
       </c>
       <c r="H26" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I26" t="n">
         <v>2.67</v>
@@ -3201,13 +3201,13 @@
         <v>2.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
@@ -3215,7 +3215,7 @@
         <v>6.4</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V26" t="n">
         <v>8</v>
@@ -3230,10 +3230,10 @@
         <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3242,7 +3242,7 @@
         <v>50</v>
       </c>
       <c r="AD26" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE26" t="n">
         <v>6.7</v>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3456,7 +3456,7 @@
         <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U28" t="n">
         <v>11</v>
@@ -3489,7 +3489,7 @@
         <v>800</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
         <v>15.5</v>
@@ -3510,7 +3510,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pjiYePQ8</t>
+          <t>QBFh66po</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3530,107 +3530,109 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pianese</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K29" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="N29" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S29" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U29" t="n">
+        <v>7</v>
+      </c>
+      <c r="V29" t="n">
         <v>8.25</v>
       </c>
-      <c r="V29" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W29" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="X29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG29" t="n">
         <v>18</v>
       </c>
-      <c r="Y29" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH29" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AI29" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YRFnSm74</t>
+          <t>QLbeeXI0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3640,7 +3642,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3650,109 +3652,109 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>2.67</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="I30" t="n">
-        <v>4.85</v>
+        <v>2.8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="O30" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="T30" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="U30" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="V30" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE30" t="n">
-        <v>10.75</v>
+        <v>7.3</v>
       </c>
       <c r="AF30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI30" t="n">
         <v>27</v>
       </c>
-      <c r="AG30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6VOXSQdM</t>
+          <t>pjiYePQ8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3762,7 +3764,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3772,100 +3774,98 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K31" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="N31" t="n">
-        <v>1.87</v>
+        <v>2.27</v>
       </c>
       <c r="O31" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="R31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T31" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="U31" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="V31" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="W31" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y31" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AB31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>700</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ31" t="n">
         <v>55</v>
@@ -3874,7 +3874,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>QBFh66po</t>
+          <t>YRFnSm74</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3894,22 +3894,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pianese</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="J32" t="n">
         <v>1.08</v>
@@ -3921,7 +3921,7 @@
         <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="N32" t="n">
         <v>2.1</v>
@@ -3936,67 +3936,67 @@
         <v>2.42</v>
       </c>
       <c r="R32" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="S32" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U32" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="V32" t="n">
         <v>8.25</v>
       </c>
       <c r="W32" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z32" t="n">
         <v>6.4</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AB32" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AE32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AJ32" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>QLbeeXI0</t>
+          <t>6VOXSQdM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4016,103 +4016,103 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.67</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>2.87</v>
+        <v>3.85</v>
       </c>
       <c r="I33" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K33" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="N33" t="n">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="O33" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="P33" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S33" t="n">
         <v>1.82</v>
       </c>
       <c r="T33" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="U33" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="V33" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="W33" t="n">
-        <v>32</v>
+        <v>11.75</v>
       </c>
       <c r="X33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Z33" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
         <v>80</v>
       </c>
       <c r="AD33" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.25</v>
+        <v>16</v>
       </c>
       <c r="AH33" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -4168,10 +4168,10 @@
         <v>2.75</v>
       </c>
       <c r="N34" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P34" t="n">
         <v>1.5</v>
@@ -4397,7 +4397,7 @@
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J36" t="n">
         <v>1.03</v>
@@ -4412,25 +4412,25 @@
         <v>4.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S36" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U36" t="n">
         <v>15</v>
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z36" t="n">
         <v>15</v>
@@ -4463,7 +4463,7 @@
         <v>101</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
         <v>17</v>
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I38" t="n">
         <v>1.22</v>
@@ -4590,16 +4590,16 @@
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M38" t="n">
         <v>6.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P38" t="n">
         <v>1.2</v>
@@ -4608,22 +4608,22 @@
         <v>4.33</v>
       </c>
       <c r="R38" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S38" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U38" t="n">
         <v>51</v>
       </c>
       <c r="V38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="X38" t="n">
         <v>51</v>
@@ -4647,7 +4647,7 @@
         <v>151</v>
       </c>
       <c r="AE38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
         <v>8</v>
@@ -4706,13 +4706,13 @@
         <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K39" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4730,10 +4730,10 @@
         <v>3.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S39" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T39" t="n">
         <v>9</v>
@@ -4819,25 +4819,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
+        <v>21</v>
+      </c>
+      <c r="K40" t="n">
         <v>1.02</v>
       </c>
-      <c r="K40" t="n">
-        <v>11</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N40" t="n">
         <v>1.4</v>
@@ -4852,10 +4852,10 @@
         <v>4.33</v>
       </c>
       <c r="R40" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -4879,10 +4879,10 @@
         <v>21</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC40" t="n">
         <v>26</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
         <v>23</v>
@@ -4941,59 +4941,59 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="H41" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M41" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="N41" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="O41" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S41" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W41" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AB41" t="n">
         <v>12</v>
@@ -5002,16 +5002,16 @@
         <v>45</v>
       </c>
       <c r="AD41" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE41" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AF41" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH41" t="n">
         <v>32</v>
@@ -5020,7 +5020,7 @@
         <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -5055,90 +5055,90 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M42" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P42" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="R42" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S42" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T42" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="U42" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="V42" t="n">
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X42" t="n">
         <v>18</v>
       </c>
       <c r="Y42" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE42" t="n">
         <v>9</v>
       </c>
       <c r="AF42" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AJ42" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -5173,24 +5173,24 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M43" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
         <v>1.65</v>
@@ -5199,61 +5199,61 @@
         <v>1.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S43" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T43" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U43" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="V43" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W43" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X43" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y43" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA43" t="n">
         <v>6.2</v>
       </c>
       <c r="AB43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD43" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AF43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ43" t="n">
         <v>32</v>
@@ -5291,13 +5291,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="J44" t="n">
         <v>1.01</v>
@@ -5306,16 +5306,16 @@
         <v>34</v>
       </c>
       <c r="L44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="M44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="O44" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="P44" t="n">
         <v>1.13</v>
@@ -5324,22 +5324,22 @@
         <v>6</v>
       </c>
       <c r="R44" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S44" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U44" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X44" t="n">
         <v>11</v>
@@ -5354,31 +5354,31 @@
         <v>13</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF44" t="n">
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -5413,13 +5413,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J45" t="n">
         <v>1.01</v>
@@ -5428,76 +5428,76 @@
         <v>34</v>
       </c>
       <c r="L45" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="M45" t="n">
+        <v>9</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>21</v>
+      </c>
+      <c r="U45" t="n">
+        <v>21</v>
+      </c>
+      <c r="V45" t="n">
         <v>11</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
-      <c r="T45" t="n">
-        <v>23</v>
-      </c>
-      <c r="U45" t="n">
-        <v>23</v>
-      </c>
-      <c r="V45" t="n">
-        <v>12</v>
       </c>
       <c r="W45" t="n">
         <v>29</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z45" t="n">
         <v>34</v>
       </c>
       <c r="AA45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB45" t="n">
         <v>10</v>
       </c>
       <c r="AC45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE45" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ45" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -1512,10 +1512,10 @@
         <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1631,43 +1631,43 @@
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1679,25 +1679,25 @@
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="n">
         <v>201</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -1709,10 +1709,10 @@
         <v>41</v>
       </c>
       <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
         <v>4.33</v>
@@ -1786,13 +1786,13 @@
         <v>2.25</v>
       </c>
       <c r="T13" t="n">
+        <v>13</v>
+      </c>
+      <c r="U13" t="n">
+        <v>19</v>
+      </c>
+      <c r="V13" t="n">
         <v>12</v>
-      </c>
-      <c r="U13" t="n">
-        <v>17</v>
-      </c>
-      <c r="V13" t="n">
-        <v>11</v>
       </c>
       <c r="W13" t="n">
         <v>34</v>
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
         <v>15</v>
@@ -1828,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -1878,13 +1878,13 @@
         <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
         <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
         <v>3.75</v>
@@ -1991,22 +1991,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>3.5</v>
@@ -2030,13 +2030,13 @@
         <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
         <v>9.5</v>
       </c>
       <c r="V15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W15" t="n">
         <v>17</v>
@@ -2051,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -2063,10 +2063,10 @@
         <v>201</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -2113,22 +2113,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>2.75</v>
@@ -2155,13 +2155,13 @@
         <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
         <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -2235,31 +2235,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2277,7 +2277,7 @@
         <v>6.5</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
@@ -2304,22 +2304,22 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2357,31 +2357,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
         <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2390,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
         <v>7.5</v>
@@ -2402,13 +2402,13 @@
         <v>9.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
         <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>26</v>
@@ -2417,7 +2417,7 @@
         <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -2426,7 +2426,7 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
@@ -2435,7 +2435,7 @@
         <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.07</v>
@@ -2521,7 +2521,7 @@
         <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
@@ -2554,7 +2554,7 @@
         <v>9.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
@@ -2965,55 +2965,55 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P24" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="U24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="V24" t="n">
         <v>7</v>
       </c>
       <c r="W24" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
         <v>25</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB24" t="n">
         <v>14</v>
@@ -3025,19 +3025,19 @@
         <v>500</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ24" t="n">
         <v>45</v>
@@ -3185,82 +3185,82 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="H26" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="I26" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="O26" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U26" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="W26" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD26" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AG26" t="n">
         <v>8.25</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -3417,100 +3417,100 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="H28" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N28" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="P28" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S28" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T28" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="U28" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="V28" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W28" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="X28" t="n">
         <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AA28" t="n">
         <v>5.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AD28" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AE28" t="n">
         <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>QBFh66po</t>
+          <t>pjiYePQ8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3530,109 +3530,109 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pianese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>4.15</v>
       </c>
       <c r="J29" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K29" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="N29" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T29" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="U29" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="V29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AJ29" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>QLbeeXI0</t>
+          <t>YRFnSm74</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3652,46 +3652,46 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.67</v>
+        <v>1.83</v>
       </c>
       <c r="H30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M30" t="n">
         <v>2.87</v>
       </c>
-      <c r="I30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2.6</v>
-      </c>
       <c r="N30" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R30" t="n">
         <v>1.88</v>
@@ -3700,61 +3700,61 @@
         <v>1.82</v>
       </c>
       <c r="T30" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="U30" t="n">
-        <v>12.5</v>
+        <v>8.25</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="W30" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="X30" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
         <v>80</v>
       </c>
       <c r="AD30" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.3</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.25</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pjiYePQ8</t>
+          <t>6VOXSQdM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3774,107 +3774,109 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="N31" t="n">
-        <v>2.27</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="P31" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.87</v>
       </c>
       <c r="R31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S31" t="n">
         <v>2</v>
       </c>
-      <c r="S31" t="n">
-        <v>1.72</v>
-      </c>
       <c r="T31" t="n">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="U31" t="n">
+        <v>9</v>
+      </c>
+      <c r="V31" t="n">
         <v>8.25</v>
       </c>
-      <c r="V31" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD31" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>450</v>
+      </c>
       <c r="AE31" t="n">
-        <v>9.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AJ31" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>YRFnSm74</t>
+          <t>QBFh66po</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3894,28 +3896,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Pianese</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.08</v>
       </c>
       <c r="K32" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.37</v>
@@ -3936,67 +3938,67 @@
         <v>2.42</v>
       </c>
       <c r="R32" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T32" t="n">
         <v>5.8</v>
       </c>
       <c r="U32" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="V32" t="n">
         <v>8.25</v>
       </c>
       <c r="W32" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="X32" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AB32" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD32" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI32" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6VOXSQdM</t>
+          <t>QLbeeXI0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4016,103 +4018,103 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>2.72</v>
       </c>
       <c r="H33" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>2.72</v>
       </c>
       <c r="J33" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="K33" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="M33" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="N33" t="n">
-        <v>1.85</v>
+        <v>2.42</v>
       </c>
       <c r="O33" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="S33" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="T33" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U33" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="V33" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="W33" t="n">
-        <v>11.75</v>
+        <v>32</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y33" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB33" t="n">
         <v>17</v>
       </c>
       <c r="AC33" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AD33" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>16</v>
+        <v>10.75</v>
       </c>
       <c r="AH33" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
@@ -4590,7 +4592,7 @@
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="M38" t="n">
         <v>6.5</v>
@@ -4608,10 +4610,10 @@
         <v>4.33</v>
       </c>
       <c r="R38" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S38" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T38" t="n">
         <v>34</v>
@@ -4697,22 +4699,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H39" t="n">
         <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
         <v>10.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4730,22 +4732,22 @@
         <v>3.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T39" t="n">
         <v>9</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V39" t="n">
         <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X39" t="n">
         <v>11</v>
@@ -4754,7 +4756,7 @@
         <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA39" t="n">
         <v>9.5</v>
@@ -4784,7 +4786,7 @@
         <v>51</v>
       </c>
       <c r="AJ39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
@@ -4828,10 +4830,10 @@
         <v>3.7</v>
       </c>
       <c r="J40" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>1.02</v>
+        <v>12</v>
       </c>
       <c r="L40" t="n">
         <v>1.1</v>
@@ -4941,86 +4943,86 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="H41" t="n">
         <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M41" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N41" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O41" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="T41" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="U41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V41" t="n">
         <v>9.5</v>
       </c>
-      <c r="U41" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="V41" t="n">
-        <v>9.25</v>
-      </c>
       <c r="W41" t="n">
+        <v>30</v>
+      </c>
+      <c r="X41" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH41" t="n">
         <v>28</v>
       </c>
-      <c r="X41" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>32</v>
-      </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5208,19 +5210,19 @@
         <v>1.82</v>
       </c>
       <c r="T43" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U43" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V43" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W43" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y43" t="n">
         <v>37</v>
@@ -5238,22 +5240,22 @@
         <v>75</v>
       </c>
       <c r="AD43" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF43" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -781,7 +781,7 @@
         <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -838,7 +838,7 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -1634,22 +1634,22 @@
         <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
         <v>4.33</v>
@@ -1801,10 +1801,10 @@
         <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
@@ -1828,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
         <v>11</v>
@@ -1887,31 +1887,31 @@
         <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
@@ -1923,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
         <v>11</v>
@@ -1932,13 +1932,13 @@
         <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -2000,13 +2000,13 @@
         <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>3.5</v>
@@ -2113,22 +2113,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>2.75</v>
@@ -2152,13 +2152,13 @@
         <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
         <v>15</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
         <v>34</v>
@@ -2188,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -2235,43 +2235,43 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
         <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>6.5</v>
@@ -2280,22 +2280,22 @@
         <v>8</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
         <v>17</v>
@@ -2316,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
         <v>41</v>
@@ -2357,22 +2357,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
         <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
         <v>3.5</v>
@@ -2399,13 +2399,13 @@
         <v>7.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -2429,10 +2429,10 @@
         <v>251</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2441,10 +2441,10 @@
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2491,7 +2491,7 @@
         <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2965,82 +2965,82 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="U24" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="V24" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="W24" t="n">
-        <v>11.25</v>
+        <v>15.5</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
         <v>25</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD24" t="n">
         <v>500</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.75</v>
+        <v>7.2</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -3316,10 +3316,10 @@
         <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O27" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P27" t="n">
         <v>1.33</v>
@@ -3417,43 +3417,43 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="J28" t="n">
         <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
         <v>8.25</v>
@@ -3465,7 +3465,7 @@
         <v>9.5</v>
       </c>
       <c r="W28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X28" t="n">
         <v>22</v>
@@ -3474,34 +3474,34 @@
         <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC28" t="n">
         <v>60</v>
       </c>
       <c r="AD28" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF28" t="n">
         <v>14</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH28" t="n">
         <v>35</v>
       </c>
       <c r="AI28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ28" t="n">
         <v>32</v>
@@ -3539,19 +3539,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I29" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
         <v>1.11</v>
       </c>
       <c r="K29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
@@ -3572,13 +3572,13 @@
         <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U29" t="n">
         <v>9.25</v>
@@ -3587,19 +3587,19 @@
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB29" t="n">
         <v>14.5</v>
@@ -3608,7 +3608,7 @@
         <v>80</v>
       </c>
       <c r="AD29" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE29" t="n">
         <v>9.75</v>
@@ -3620,7 +3620,7 @@
         <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="n">
         <v>45</v>
@@ -3661,19 +3661,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
         <v>1.08</v>
       </c>
       <c r="K30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.37</v>
@@ -3688,16 +3688,16 @@
         <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S30" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
         <v>6.2</v>
@@ -3706,25 +3706,25 @@
         <v>8.25</v>
       </c>
       <c r="V30" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X30" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC30" t="n">
         <v>80</v>
@@ -3733,22 +3733,22 @@
         <v>700</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AI30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -3783,22 +3783,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H31" t="n">
         <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
         <v>3.55</v>
@@ -3813,7 +3813,7 @@
         <v>1.37</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R31" t="n">
         <v>1.72</v>
@@ -3822,25 +3822,25 @@
         <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="U31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.25</v>
       </c>
       <c r="W31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y31" t="n">
         <v>24</v>
       </c>
       <c r="Z31" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA31" t="n">
         <v>7.2</v>
@@ -3849,28 +3849,28 @@
         <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD31" t="n">
         <v>450</v>
       </c>
       <c r="AE31" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -3905,82 +3905,82 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I32" t="n">
         <v>5.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="O32" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="P32" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S32" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="T32" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="U32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W32" t="n">
+        <v>12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA32" t="n">
         <v>7.1</v>
       </c>
-      <c r="V32" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y32" t="n">
+      <c r="AB32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF32" t="n">
         <v>32</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>30</v>
       </c>
       <c r="AG32" t="n">
         <v>17.5</v>
@@ -3989,10 +3989,10 @@
         <v>110</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -4027,19 +4027,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I33" t="n">
-        <v>2.72</v>
+        <v>2.95</v>
       </c>
       <c r="J33" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K33" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.5</v>
@@ -4048,73 +4048,73 @@
         <v>2.42</v>
       </c>
       <c r="N33" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
         <v>1.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
         <v>2.02</v>
       </c>
       <c r="S33" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T33" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U33" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="V33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y33" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD33" t="n">
         <v>800</v>
       </c>
       <c r="AE33" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AF33" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH33" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="n">
         <v>32</v>
       </c>
-      <c r="AI33" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ33" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H39" t="n">
         <v>4.5</v>
@@ -4708,10 +4708,10 @@
         <v>7.5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K39" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="L39" t="n">
         <v>1.14</v>
@@ -4720,10 +4720,10 @@
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P39" t="n">
         <v>1.25</v>
@@ -4741,13 +4741,13 @@
         <v>9</v>
       </c>
       <c r="U39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V39" t="n">
         <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X39" t="n">
         <v>11</v>
@@ -4756,7 +4756,7 @@
         <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>9.5</v>
@@ -4786,7 +4786,7 @@
         <v>51</v>
       </c>
       <c r="AJ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -4943,86 +4943,90 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M41" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="N41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O41" t="n">
         <v>1.78</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="P41" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.55</v>
+      </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U41" t="n">
         <v>14.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W41" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z41" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA41" t="n">
         <v>6.3</v>
       </c>
       <c r="AB41" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD41" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE41" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH41" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
         <v>20</v>
       </c>
       <c r="AJ41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -5175,13 +5179,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5210,22 +5214,22 @@
         <v>1.82</v>
       </c>
       <c r="T43" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U43" t="n">
         <v>14.5</v>
       </c>
       <c r="V43" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W43" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X43" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="n">
         <v>8.5</v>
@@ -5240,22 +5244,22 @@
         <v>75</v>
       </c>
       <c r="AD43" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE43" t="n">
         <v>7.2</v>
       </c>
       <c r="AF43" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG43" t="n">
         <v>9.25</v>
       </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI43" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="n">
         <v>32</v>
@@ -5537,43 +5541,43 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="H46" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K46" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.27</v>
       </c>
       <c r="M46" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N46" t="n">
         <v>1.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P46" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="R46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T46" t="n">
         <v>8.75</v>
@@ -5585,22 +5589,22 @@
         <v>9.25</v>
       </c>
       <c r="W46" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="n">
         <v>27</v>
       </c>
       <c r="Z46" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC46" t="n">
         <v>50</v>
@@ -5612,7 +5616,7 @@
         <v>10</v>
       </c>
       <c r="AF46" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG46" t="n">
         <v>9.75</v>
@@ -5624,7 +5628,7 @@
         <v>21</v>
       </c>
       <c r="AJ46" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -656,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.2</v>
@@ -790,10 +790,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -1503,19 +1503,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1551,10 +1551,10 @@
         <v>19</v>
       </c>
       <c r="W11" t="n">
+        <v>67</v>
+      </c>
+      <c r="X11" t="n">
         <v>51</v>
-      </c>
-      <c r="X11" t="n">
-        <v>41</v>
       </c>
       <c r="Y11" t="n">
         <v>51</v>
@@ -1563,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB11" t="n">
         <v>19</v>
@@ -1584,7 +1584,7 @@
         <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1646,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1664,10 +1664,10 @@
         <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1676,13 +1676,13 @@
         <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
@@ -1694,22 +1694,22 @@
         <v>41</v>
       </c>
       <c r="AD12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>34</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -1762,16 +1762,16 @@
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P13" t="n">
         <v>1.3</v>
@@ -1789,22 +1789,22 @@
         <v>13</v>
       </c>
       <c r="U13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
@@ -1819,16 +1819,16 @@
         <v>126</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -1869,19 +1869,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
         <v>1.22</v>
@@ -1890,10 +1890,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
@@ -1941,7 +1941,7 @@
         <v>201</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>29</v>
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2033,16 +2033,16 @@
         <v>8</v>
       </c>
       <c r="U15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V15" t="n">
         <v>9</v>
       </c>
       <c r="W15" t="n">
+        <v>19</v>
+      </c>
+      <c r="X15" t="n">
         <v>17</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15</v>
       </c>
       <c r="Y15" t="n">
         <v>26</v>
@@ -2069,7 +2069,7 @@
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>41</v>
@@ -2662,36 +2662,90 @@
           <t>Vargas Torres</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.5</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>250</v>
+      </c>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3075,13 +3129,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3094,10 +3148,10 @@
         <v>1.6</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -3105,13 +3159,13 @@
         <v>5.1</v>
       </c>
       <c r="U25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V25" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="W25" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="X25" t="n">
         <v>12.5</v>
@@ -3132,25 +3186,25 @@
         <v>70</v>
       </c>
       <c r="AD25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -3316,10 +3370,10 @@
         <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O27" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P27" t="n">
         <v>1.33</v>
@@ -3438,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
         <v>1.72</v>
@@ -3456,10 +3510,10 @@
         <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V28" t="n">
         <v>9.5</v>
@@ -3489,10 +3543,10 @@
         <v>450</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG28" t="n">
         <v>9.75</v>
@@ -3504,7 +3558,7 @@
         <v>24</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -3539,19 +3593,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H29" t="n">
         <v>2.75</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J29" t="n">
         <v>1.11</v>
       </c>
       <c r="K29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
@@ -3572,37 +3626,37 @@
         <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
         <v>1.82</v>
       </c>
       <c r="T29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U29" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA29" t="n">
         <v>5.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC29" t="n">
         <v>80</v>
@@ -3611,19 +3665,19 @@
         <v>700</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="n">
         <v>50</v>
@@ -3783,13 +3837,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -3822,16 +3876,16 @@
         <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V31" t="n">
         <v>8.25</v>
       </c>
       <c r="W31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X31" t="n">
         <v>13.5</v>
@@ -3849,28 +3903,28 @@
         <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD31" t="n">
         <v>450</v>
       </c>
       <c r="AE31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
         <v>35</v>
       </c>
       <c r="AJ31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -3905,19 +3959,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
@@ -3929,70 +3983,70 @@
         <v>1.87</v>
       </c>
       <c r="O32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P32" t="n">
         <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T32" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="V32" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE32" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y32" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH32" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -4027,13 +4081,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="H33" t="n">
         <v>2.85</v>
       </c>
       <c r="I33" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
         <v>1.12</v>
@@ -4063,22 +4117,22 @@
         <v>2.02</v>
       </c>
       <c r="S33" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T33" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U33" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="V33" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W33" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="n">
         <v>40</v>
@@ -4099,19 +4153,19 @@
         <v>800</v>
       </c>
       <c r="AE33" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ33" t="n">
         <v>50</v>
@@ -4161,7 +4215,7 @@
         <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.4</v>
@@ -4182,10 +4236,10 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
         <v>6</v>
@@ -4212,13 +4266,13 @@
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>67</v>
       </c>
       <c r="AD34" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE34" t="n">
         <v>9</v>
@@ -4227,13 +4281,13 @@
         <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
@@ -4393,13 +4447,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>1.03</v>
@@ -4435,10 +4489,10 @@
         <v>11</v>
       </c>
       <c r="U36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W36" t="n">
         <v>23</v>
@@ -4447,7 +4501,7 @@
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
         <v>15</v>
@@ -4465,7 +4519,7 @@
         <v>101</v>
       </c>
       <c r="AE36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
         <v>17</v>
@@ -4480,7 +4534,7 @@
         <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -4514,36 +4568,80 @@
           <t>Chabab Mohammedia</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>29</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.77</v>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>6</v>
+      </c>
+      <c r="V37" t="n">
+        <v>13</v>
+      </c>
+      <c r="W37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>250</v>
+      </c>
       <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
+      <c r="AE37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>120</v>
+      </c>
       <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="AI37" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4580,10 +4678,10 @@
         <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J38" t="n">
         <v>1.01</v>
@@ -4821,19 +4919,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="K40" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L40" t="n">
         <v>1.1</v>
@@ -4842,10 +4940,10 @@
         <v>6.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P40" t="n">
         <v>1.2</v>
@@ -4854,10 +4952,10 @@
         <v>4.33</v>
       </c>
       <c r="R40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -4878,13 +4976,13 @@
         <v>17</v>
       </c>
       <c r="Z40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
         <v>26</v>
@@ -4905,7 +5003,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
         <v>23</v>
@@ -5541,7 +5639,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
@@ -5553,7 +5651,7 @@
         <v>1.06</v>
       </c>
       <c r="K46" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="L46" t="n">
         <v>1.27</v>
@@ -5568,40 +5666,40 @@
         <v>1.9</v>
       </c>
       <c r="P46" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="R46" t="n">
         <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T46" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U46" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V46" t="n">
         <v>9.25</v>
       </c>
       <c r="W46" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X46" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z46" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB46" t="n">
         <v>12</v>
@@ -5613,10 +5711,10 @@
         <v>350</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG46" t="n">
         <v>9.75</v>
@@ -5625,10 +5723,10 @@
         <v>32</v>
       </c>
       <c r="AI46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ46" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -716,7 +716,7 @@
         <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -1640,10 +1640,10 @@
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N12" t="n">
         <v>1.7</v>
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2057,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
         <v>201</v>
@@ -2066,7 +2066,7 @@
         <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2600,36 +2600,90 @@
           <t>Ind. Juniors</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W20" t="n">
+        <v>21</v>
+      </c>
+      <c r="X20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>120</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3019,82 +3073,82 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="H24" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O24" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="U24" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="V24" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="W24" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
         <v>25</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD24" t="n">
         <v>500</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>40</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -3239,82 +3293,82 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="H26" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P26" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="U26" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="V26" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W26" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z26" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>60</v>
       </c>
       <c r="AD26" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE26" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -3349,13 +3403,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
@@ -3382,19 +3436,19 @@
         <v>3.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
       </c>
       <c r="U27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W27" t="n">
         <v>51</v>
@@ -3406,7 +3460,7 @@
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="n">
         <v>7.5</v>
@@ -3421,16 +3475,16 @@
         <v>201</v>
       </c>
       <c r="AE27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF27" t="n">
         <v>8</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG27" t="n">
         <v>8.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
@@ -3656,7 +3710,7 @@
         <v>5.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
         <v>80</v>
@@ -3751,10 +3805,10 @@
         <v>1.9</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T30" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U30" t="n">
         <v>8.25</v>
@@ -3766,10 +3820,10 @@
         <v>16</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z30" t="n">
         <v>6.5</v>
@@ -3787,7 +3841,7 @@
         <v>700</v>
       </c>
       <c r="AE30" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF30" t="n">
         <v>22</v>
@@ -3959,22 +4013,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
         <v>3.25</v>
@@ -3983,25 +4037,25 @@
         <v>1.87</v>
       </c>
       <c r="O32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P32" t="n">
         <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R32" t="n">
         <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T32" t="n">
         <v>6.8</v>
       </c>
       <c r="U32" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="V32" t="n">
         <v>8</v>
@@ -4013,13 +4067,13 @@
         <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB32" t="n">
         <v>16</v>
@@ -4034,7 +4088,7 @@
         <v>12.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG32" t="n">
         <v>16</v>
@@ -4043,7 +4097,7 @@
         <v>90</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ32" t="n">
         <v>55</v>
@@ -4081,13 +4135,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H33" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J33" t="n">
         <v>1.12</v>
@@ -4102,10 +4156,10 @@
         <v>2.42</v>
       </c>
       <c r="N33" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="O33" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
         <v>1.6</v>
@@ -4120,22 +4174,22 @@
         <v>1.7</v>
       </c>
       <c r="T33" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="U33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V33" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y33" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="n">
         <v>5.4</v>
@@ -4144,7 +4198,7 @@
         <v>5.6</v>
       </c>
       <c r="AB33" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
         <v>100</v>
@@ -4153,22 +4207,22 @@
         <v>800</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH33" t="n">
         <v>40</v>
       </c>
       <c r="AI33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
@@ -4675,7 +4729,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H38" t="n">
         <v>6.5</v>
@@ -4684,10 +4738,10 @@
         <v>1.2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>1.02</v>
       </c>
       <c r="L38" t="n">
         <v>1.1</v>
@@ -4708,10 +4762,10 @@
         <v>4.33</v>
       </c>
       <c r="R38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S38" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T38" t="n">
         <v>34</v>
@@ -4726,7 +4780,7 @@
         <v>126</v>
       </c>
       <c r="X38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Y38" t="n">
         <v>51</v>
@@ -4747,7 +4801,7 @@
         <v>151</v>
       </c>
       <c r="AE38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF38" t="n">
         <v>8</v>
@@ -4756,7 +4810,7 @@
         <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI38" t="n">
         <v>11</v>
@@ -4797,7 +4851,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H39" t="n">
         <v>4.5</v>
@@ -4836,10 +4890,10 @@
         <v>1.91</v>
       </c>
       <c r="T39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V39" t="n">
         <v>9</v>
@@ -4919,19 +4973,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H40" t="n">
         <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L40" t="n">
         <v>1.1</v>
@@ -5003,7 +5057,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
         <v>23</v>
@@ -5517,13 +5571,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J45" t="n">
         <v>1.01</v>
@@ -5532,16 +5586,16 @@
         <v>34</v>
       </c>
       <c r="L45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O45" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P45" t="n">
         <v>1.17</v>
@@ -5550,10 +5604,10 @@
         <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T45" t="n">
         <v>21</v>
@@ -5562,7 +5616,7 @@
         <v>21</v>
       </c>
       <c r="V45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W45" t="n">
         <v>29</v>
@@ -5595,7 +5649,7 @@
         <v>21</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-07.xlsx
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1307,7 +1307,7 @@
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1334,16 +1334,16 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>67</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
         <v>51</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
         <v>3.2</v>
@@ -2612,52 +2612,52 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.47</v>
       </c>
-      <c r="M20" t="n">
+      <c r="Q20" t="n">
         <v>2.32</v>
       </c>
-      <c r="N20" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U20" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
+        <v>20</v>
+      </c>
+      <c r="X20" t="n">
         <v>21</v>
       </c>
-      <c r="X20" t="n">
-        <v>22</v>
-      </c>
       <c r="Y20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB20" t="n">
         <v>19</v>
@@ -2667,16 +2667,16 @@
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
         <v>35</v>
@@ -3546,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O28" t="n">
         <v>1.72</v>
@@ -3564,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U28" t="n">
         <v>13</v>
@@ -3576,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="X28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
         <v>6.5</v>
@@ -3597,7 +3597,7 @@
         <v>450</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF28" t="n">
         <v>14.5</v>
@@ -3609,7 +3609,7 @@
         <v>35</v>
       </c>
       <c r="AI28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
         <v>30</v>
@@ -3719,10 +3719,10 @@
         <v>700</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
@@ -3778,70 +3778,70 @@
         <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P30" t="n">
         <v>1.47</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R30" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S30" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="T30" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="U30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V30" t="n">
         <v>8.25</v>
-      </c>
-      <c r="V30" t="n">
-        <v>8.5</v>
       </c>
       <c r="W30" t="n">
         <v>16</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA30" t="n">
         <v>6.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE30" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF30" t="n">
         <v>22</v>
@@ -3856,7 +3856,7 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -4013,13 +4013,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4046,25 +4046,25 @@
         <v>2.65</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S32" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T32" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V32" t="n">
         <v>7.9</v>
       </c>
-      <c r="V32" t="n">
-        <v>8</v>
-      </c>
       <c r="W32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
         <v>26</v>
@@ -4073,34 +4073,34 @@
         <v>7.2</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG32" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI32" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -4174,55 +4174,55 @@
         <v>1.7</v>
       </c>
       <c r="T33" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="U33" t="n">
         <v>10.5</v>
       </c>
       <c r="V33" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W33" t="n">
         <v>26</v>
       </c>
       <c r="X33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="n">
         <v>5.4</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB33" t="n">
         <v>17</v>
       </c>
       <c r="AC33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD33" t="n">
         <v>800</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AH33" t="n">
         <v>40</v>
       </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ33" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -5095,27 +5095,27 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I41" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M41" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="N41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O41" t="n">
         <v>1.82</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.78</v>
       </c>
       <c r="P41" t="n">
         <v>1.39</v>
@@ -5130,31 +5130,31 @@
         <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U41" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V41" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W41" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z41" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC41" t="n">
         <v>55</v>
@@ -5163,22 +5163,22 @@
         <v>400</v>
       </c>
       <c r="AE41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ41" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
